--- a/biology/Botanique/Vespolina/Vespolina.xlsx
+++ b/biology/Botanique/Vespolina/Vespolina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vespolina est un cépage italien de raisins noir. Il ne faut pas la confondre avec le cépage Vespaiola.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage « Vespolina »  provient du nord de l'Italie. 
 Il est classé cépage d'appoint en DOC Boca, Colline Novaresi, Coste della Sesia, Fara, Ghemme et Sizzano.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanchâtre à liseré faiblement carminé.
 Jeunes feuilles duveteuses, un peu bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas. 
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont de taille grandes et les baies sont de taille moyenne. La grappe est cylindro-conique, peu serrée. Le cépage est de moyenne vigueur et d'une fertilité régulière mais peu abondante. 
 Il donne des vins de rouge vif, délicatement parfumé et avec un taux d'alcool moyen. Il est vinifié généralement en assemblage
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La vespolina est connue sous les noms de balsamina, guzetta, nespolina, nespolino, nespoulìn, ughetta, ughetta di Canneta, uvetta di Canneto, 
 </t>
